--- a/excel/user 15.14.38 07.13.16.xlsx
+++ b/excel/user 15.14.38 07.13.16.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
     <t>mssv</t>
   </si>
@@ -20,9 +20,6 @@
   </si>
   <si>
     <t>password</t>
-  </si>
-  <si>
-    <t>Erqwerqwrw</t>
   </si>
   <si>
     <r>
@@ -1420,7 +1417,7 @@
   <cols>
     <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.0781" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1719" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
     <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
     <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
@@ -1465,7 +1462,7 @@
         <v>17027772</v>
       </c>
       <c r="C4" t="s" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" s="11">
         <v>17027772</v>
@@ -1478,7 +1475,7 @@
         <v>17027773</v>
       </c>
       <c r="C5" t="s" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="11">
         <v>17027773</v>
@@ -1491,7 +1488,7 @@
         <v>17027774</v>
       </c>
       <c r="C6" t="s" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" s="11">
         <v>17027774</v>
@@ -1504,7 +1501,7 @@
         <v>17027775</v>
       </c>
       <c r="C7" t="s" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="11">
         <v>17027775</v>
@@ -1517,7 +1514,7 @@
         <v>17027776</v>
       </c>
       <c r="C8" t="s" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="11">
         <v>17027776</v>
@@ -1530,7 +1527,7 @@
         <v>17027777</v>
       </c>
       <c r="C9" t="s" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="11">
         <v>17027777</v>
@@ -1543,7 +1540,7 @@
         <v>17027778</v>
       </c>
       <c r="C10" t="s" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="11">
         <v>17027778</v>
@@ -1556,7 +1553,7 @@
         <v>17027779</v>
       </c>
       <c r="C11" t="s" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11" s="11">
         <v>17027779</v>
@@ -1569,7 +1566,7 @@
         <v>17027780</v>
       </c>
       <c r="C12" t="s" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="11">
         <v>17027781</v>
@@ -1582,7 +1579,7 @@
         <v>17027781</v>
       </c>
       <c r="C13" t="s" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="11">
         <v>17027781</v>
@@ -1710,16 +1707,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="C5" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="C6" r:id="rId3" location="" tooltip="" display=""/>
-    <hyperlink ref="C7" r:id="rId4" location="" tooltip="" display=""/>
-    <hyperlink ref="C8" r:id="rId5" location="" tooltip="" display=""/>
-    <hyperlink ref="C9" r:id="rId6" location="" tooltip="" display=""/>
-    <hyperlink ref="C10" r:id="rId7" location="" tooltip="" display=""/>
-    <hyperlink ref="C11" r:id="rId8" location="" tooltip="" display=""/>
-    <hyperlink ref="C12" r:id="rId9" location="" tooltip="" display=""/>
-    <hyperlink ref="C13" r:id="rId10" location="" tooltip="" display=""/>
+    <hyperlink ref="C3" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="C4" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="C5" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="C6" r:id="rId4" location="" tooltip="" display=""/>
+    <hyperlink ref="C7" r:id="rId5" location="" tooltip="" display=""/>
+    <hyperlink ref="C8" r:id="rId6" location="" tooltip="" display=""/>
+    <hyperlink ref="C9" r:id="rId7" location="" tooltip="" display=""/>
+    <hyperlink ref="C10" r:id="rId8" location="" tooltip="" display=""/>
+    <hyperlink ref="C11" r:id="rId9" location="" tooltip="" display=""/>
+    <hyperlink ref="C12" r:id="rId10" location="" tooltip="" display=""/>
+    <hyperlink ref="C13" r:id="rId11" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
